--- a/Deliverables/Understanding Data/NYBG/Inventory Data/Comprehensive Species Tally/Comprehensive Species Tally 1937 - 2016.xlsx
+++ b/Deliverables/Understanding Data/NYBG/Inventory Data/Comprehensive Species Tally/Comprehensive Species Tally 1937 - 2016.xlsx
@@ -1880,7 +1880,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
